--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0947C79-4DE0-B644-9424-05EBB494F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0D357-4434-C44C-9FC6-F04B3554BFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,12 +473,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,19 +788,19 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,522 +830,522 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>44556611</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>44556622</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>44556633</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>44556644</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>44556655</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>44556666</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>44556677</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>44556688</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>44556699</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>44556710</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>44556721</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>44556732</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>44556743</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>44556754</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>44556765</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>44556776</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>44556787</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>44556798</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>44556809</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>44556820</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>127</v>
       </c>
     </row>
